--- a/book.xlsx
+++ b/book.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA\AutoTest27\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F26A65-B63C-4455-B8B2-C02172C75F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D355F887-3FDD-4CA0-896A-65D1770B5B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2856" yWindow="4632" windowWidth="18804" windowHeight="7728" xr2:uid="{55BA9832-05D2-4C96-AF49-DEF7A55FDE2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{55BA9832-05D2-4C96-AF49-DEF7A55FDE2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="29">
   <si>
     <t>Business Email</t>
   </si>
@@ -79,6 +80,40 @@
   </si>
   <si>
     <t>Visual Testing</t>
+  </si>
+  <si>
+    <t>ExpectedResult</t>
+  </si>
+  <si>
+    <t>ExpectedErrorMessage</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>Enter valid business email address</t>
+  </si>
+  <si>
+    <t>giang@gmail.com</t>
+  </si>
+  <si>
+    <t>failure</t>
+  </si>
+  <si>
+    <t>0904590445</t>
+  </si>
+  <si>
+    <t>This field is required.</t>
+  </si>
+  <si>
+    <t>Must be a phone number.
+503-555-1212</t>
+  </si>
+  <si>
+    <t>Select...</t>
+  </si>
+  <si>
+    <t>unCheck</t>
   </si>
 </sst>
 </file>
@@ -129,10 +164,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -448,24 +486,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F2D082-E39B-43EF-A07C-6F699D66E5B3}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.77734375" customWidth="1"/>
+    <col min="11" max="11" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -493,8 +534,14 @@
       <c r="I1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -522,10 +569,16 @@
       <c r="I2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -548,21 +601,26 @@
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
@@ -574,14 +632,641 @@
       </c>
       <c r="I4" t="s">
         <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{88B3F845-0551-4714-BE1E-D9788DC63D48}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{40C9B026-4DAD-4929-AD9E-BB71457AE1DF}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{4D01217B-6260-4264-915C-EBFF1000C99E}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{D444168A-5CD1-43E1-996B-BB49BB7B37D4}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{DC05ED93-8382-4163-93BC-A2AF53AA4DAA}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{86E3BE40-02AE-47ED-8475-C913B3666DEB}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{134A1E39-B789-4D50-81B4-E7B77264E23D}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{9C8E1E9A-93CD-4CD6-ACBE-EA032AE7EB76}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{90E5E646-BF91-46ED-BBDB-8AB7ADBD709C}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{41CA1AF3-BC03-4131-887B-435BD2161D77}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{3500B36A-2C05-4328-BB44-A628B7BF45C3}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{F64C2EF1-3218-4852-A54A-1784A9A77E0C}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{412576CE-A4E9-49BF-9030-2139A14F881C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341A1CA0-C656-411B-8466-24FA9ED0FB7A}">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B76E2F33-EBF4-4E17-9AA3-23631EBC2DAC}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{C2919978-D7F7-48AD-96E4-9A9DAB42E185}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{9B6ABFD2-32EC-4D8D-9BF5-5E49858BB41C}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{086D264E-A879-4836-869A-87C74B4027B8}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{AD7F5199-8191-4F49-8C5A-A878F98CC6CE}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{8564C224-B6DC-42EE-AF38-68DC0EAC7853}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{50F9973F-DBA9-4D1F-814A-758A5E07BD1C}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{EB731249-8CFB-4BA9-9473-5F9EC40A5EE4}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{6C551681-E456-412E-B5FE-5D6AB8BB6987}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{24085E20-C6BA-42FA-B8BE-EEE96DA1647C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
